--- a/reports/stats.xlsx
+++ b/reports/stats.xlsx
@@ -434,7 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>PLAYER</t>
